--- a/Shiny app (Beta version)/SanFrancisco.xlsx
+++ b/Shiny app (Beta version)/SanFrancisco.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ablei\Documents\Georgia State R\Bayesian App\Bayesian\BayesianFitForecast(V2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ablei\Documents\Georgia State R\Bayesian App\Bayesian-Beta-5-1-Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D990DCF4-06C7-4EC7-A4D8-A4A60CB10919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126C25AB-A70C-449E-9134-B86F2649AA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{BC7B9E69-69E5-4C10-889C-B3DAADFB1140}"/>
   </bookViews>
@@ -399,7 +399,7 @@
   <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
